--- a/public/templates/订单登记系统导出.xlsx
+++ b/public/templates/订单登记系统导出.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10080"/>
+    <workbookView windowWidth="23895" windowHeight="10080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>开始日期</t>
   </si>
   <si>
+    <t>发货日期</t>
+  </si>
+  <si>
     <t>部门</t>
   </si>
   <si>
     <t>区域经理</t>
   </si>
   <si>
+    <t>公司名称</t>
+  </si>
+  <si>
     <t>收货人</t>
   </si>
   <si>
@@ -37,128 +43,485 @@
     <t>订单份数</t>
   </si>
   <si>
+    <t>缺货份数</t>
+  </si>
+  <si>
     <t>总项数</t>
   </si>
   <si>
-    <t>缺货</t>
+    <t>缺货项数</t>
   </si>
   <si>
     <t>产品分类</t>
   </si>
   <si>
-    <t>非常规产品</t>
-  </si>
-  <si>
-    <t>生产地</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>缺货型号</t>
-  </si>
-  <si>
-    <t>缺货数量</t>
-  </si>
-  <si>
     <t>公共广播</t>
   </si>
   <si>
     <t>会议系统</t>
   </si>
   <si>
+    <t>订制</t>
+  </si>
+  <si>
+    <t>录播</t>
+  </si>
+  <si>
     <t>地铁事业</t>
   </si>
   <si>
     <t>澳斯迪</t>
   </si>
   <si>
-    <t>录播</t>
-  </si>
-  <si>
-    <t>研发</t>
-  </si>
-  <si>
-    <t>特殊</t>
-  </si>
-  <si>
-    <t>网络化</t>
-  </si>
-  <si>
-    <t>智能化</t>
-  </si>
-  <si>
-    <t>可寻址</t>
-  </si>
-  <si>
-    <t>注册码</t>
-  </si>
-  <si>
-    <t>网络化软件</t>
-  </si>
-  <si>
-    <t>智能化软件</t>
-  </si>
-  <si>
-    <t>发货日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>礼品</t>
+  </si>
+  <si>
+    <t>画册</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -179,73 +542,354 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,7 +899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -265,39 +909,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,147 +1020,177 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -525,201 +1199,168 @@
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="24" width="9" style="2"/>
     <col min="25" max="26" width="11.625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="2"/>
+    <col min="27" max="27" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:20">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+    <row r="2" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:26" ht="20.100000000000001" customHeight="1">
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:26" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
-    <row r="37" ht="20.100000000000001" customHeight="1"/>
-    <row r="38" ht="20.100000000000001" customHeight="1"/>
-    <row r="39" ht="20.100000000000001" customHeight="1"/>
-    <row r="40" ht="20.100000000000001" customHeight="1"/>
-    <row r="41" ht="20.100000000000001" customHeight="1"/>
-    <row r="42" ht="20.100000000000001" customHeight="1"/>
-    <row r="43" ht="20.100000000000001" customHeight="1"/>
-    <row r="44" ht="20.100000000000001" customHeight="1"/>
-    <row r="45" ht="20.100000000000001" customHeight="1"/>
-    <row r="46" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" ht="20.100000000000001" customHeight="1"/>
-    <row r="48" ht="20.100000000000001" customHeight="1"/>
-    <row r="49" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" ht="20.100000000000001" customHeight="1"/>
-    <row r="51" ht="20.100000000000001" customHeight="1"/>
-    <row r="52" ht="20.100000000000001" customHeight="1"/>
-    <row r="53" ht="20.100000000000001" customHeight="1"/>
-    <row r="54" ht="20.100000000000001" customHeight="1"/>
-    <row r="55" ht="20.100000000000001" customHeight="1"/>
-    <row r="56" ht="20.100000000000001" customHeight="1"/>
-    <row r="57" ht="20.100000000000001" customHeight="1"/>
-    <row r="58" ht="20.100000000000001" customHeight="1"/>
-    <row r="59" ht="20.100000000000001" customHeight="1"/>
-    <row r="60" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
-    <row r="67" ht="20.100000000000001" customHeight="1"/>
-    <row r="68" ht="20.100000000000001" customHeight="1"/>
-    <row r="69" ht="20.100000000000001" customHeight="1"/>
-    <row r="70" ht="20.100000000000001" customHeight="1"/>
-    <row r="71" ht="20.100000000000001" customHeight="1"/>
-    <row r="72" ht="20.100000000000001" customHeight="1"/>
-    <row r="73" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1"/>
+    <row r="4" ht="20.1" customHeight="1"/>
+    <row r="5" ht="20.1" customHeight="1"/>
+    <row r="6" ht="20.1" customHeight="1"/>
+    <row r="7" ht="20.1" customHeight="1"/>
+    <row r="8" ht="20.1" customHeight="1"/>
+    <row r="9" ht="20.1" customHeight="1"/>
+    <row r="10" ht="20.1" customHeight="1"/>
+    <row r="11" ht="20.1" customHeight="1"/>
+    <row r="12" ht="20.1" customHeight="1"/>
+    <row r="13" ht="20.1" customHeight="1"/>
+    <row r="14" ht="20.1" customHeight="1"/>
+    <row r="15" ht="20.1" customHeight="1"/>
+    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="21" ht="20.1" customHeight="1"/>
+    <row r="22" ht="20.1" customHeight="1"/>
+    <row r="23" ht="20.1" customHeight="1"/>
+    <row r="24" ht="20.1" customHeight="1"/>
+    <row r="25" ht="20.1" customHeight="1"/>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
+    <row r="29" ht="20.1" customHeight="1"/>
+    <row r="30" ht="20.1" customHeight="1"/>
+    <row r="31" ht="20.1" customHeight="1"/>
+    <row r="32" ht="20.1" customHeight="1"/>
+    <row r="33" ht="20.1" customHeight="1"/>
+    <row r="34" ht="20.1" customHeight="1"/>
+    <row r="35" ht="20.1" customHeight="1"/>
+    <row r="36" ht="20.1" customHeight="1"/>
+    <row r="37" ht="20.1" customHeight="1"/>
+    <row r="38" ht="20.1" customHeight="1"/>
+    <row r="39" ht="20.1" customHeight="1"/>
+    <row r="40" ht="20.1" customHeight="1"/>
+    <row r="41" ht="20.1" customHeight="1"/>
+    <row r="42" ht="20.1" customHeight="1"/>
+    <row r="43" ht="20.1" customHeight="1"/>
+    <row r="44" ht="20.1" customHeight="1"/>
+    <row r="45" ht="20.1" customHeight="1"/>
+    <row r="46" ht="20.1" customHeight="1"/>
+    <row r="47" ht="20.1" customHeight="1"/>
+    <row r="48" ht="20.1" customHeight="1"/>
+    <row r="49" ht="20.1" customHeight="1"/>
+    <row r="50" ht="20.1" customHeight="1"/>
+    <row r="51" ht="20.1" customHeight="1"/>
+    <row r="52" ht="20.1" customHeight="1"/>
+    <row r="53" ht="20.1" customHeight="1"/>
+    <row r="54" ht="20.1" customHeight="1"/>
+    <row r="55" ht="20.1" customHeight="1"/>
+    <row r="56" ht="20.1" customHeight="1"/>
+    <row r="57" ht="20.1" customHeight="1"/>
+    <row r="58" ht="20.1" customHeight="1"/>
+    <row r="59" ht="20.1" customHeight="1"/>
+    <row r="60" ht="20.1" customHeight="1"/>
+    <row r="61" ht="20.1" customHeight="1"/>
+    <row r="62" ht="20.1" customHeight="1"/>
+    <row r="63" ht="20.1" customHeight="1"/>
+    <row r="64" ht="20.1" customHeight="1"/>
+    <row r="65" ht="20.1" customHeight="1"/>
+    <row r="66" ht="20.1" customHeight="1"/>
+    <row r="67" ht="20.1" customHeight="1"/>
+    <row r="68" ht="20.1" customHeight="1"/>
+    <row r="69" ht="20.1" customHeight="1"/>
+    <row r="70" ht="20.1" customHeight="1"/>
+    <row r="71" ht="20.1" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:Z1"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="13">
+    <mergeCell ref="M1:T1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -729,8 +1370,12 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>